--- a/output_json_info/result.xlsx
+++ b/output_json_info/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git2\apnea_detection_final\output_json_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git4\apneadetect\output_json_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -638,7 +638,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1268,7 +1268,7 @@
         <v>38</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>2.709677419354839</v>

--- a/output_json_info/result.xlsx
+++ b/output_json_info/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git4\apneadetect\output_json_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git5\apneadetect\output_json_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>subjects</t>
   </si>
@@ -256,6 +256,10 @@
   </si>
   <si>
     <t>김선순_199(133944)-20180423_215738-acc.csv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -638,7 +642,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1267,8 +1271,8 @@
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11">
-        <v>9</v>
+      <c r="C11" t="s">
+        <v>39</v>
       </c>
       <c r="D11">
         <v>2.709677419354839</v>

--- a/output_json_info/result.xlsx
+++ b/output_json_info/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>subjects</t>
   </si>
@@ -256,10 +256,6 @@
   </si>
   <si>
     <t>김선순_199(133944)-20180423_215738-acc.csv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +638,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1271,8 +1267,8 @@
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
-        <v>39</v>
+      <c r="C11">
+        <v>456</v>
       </c>
       <c r="D11">
         <v>2.709677419354839</v>

--- a/output_json_info/result.xlsx
+++ b/output_json_info/result.xlsx
@@ -638,7 +638,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1268,7 +1268,7 @@
         <v>38</v>
       </c>
       <c r="C11">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>2.709677419354839</v>

--- a/output_json_info/result.xlsx
+++ b/output_json_info/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git5\apneadetect\output_json_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git6\apneadetect\output_json_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>subjects</t>
   </si>
@@ -256,6 +256,10 @@
   </si>
   <si>
     <t>김선순_199(133944)-20180423_215738-acc.csv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaad</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -638,7 +642,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1267,8 +1271,8 @@
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="C11" t="s">
+        <v>39</v>
       </c>
       <c r="D11">
         <v>2.709677419354839</v>
